--- a/Resources/Configuration1.xlsx
+++ b/Resources/Configuration1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MugunthRaman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MugunthRaman\git\EagleAutomation\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E751472-56DB-48E6-B6D6-49AE2B4A9839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B290B2-52F5-431F-A8FF-A88E9AA373FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3883F32-F6B7-4344-89C2-CDCBDBE1FA77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="420">
   <si>
     <t>Skin Care, This is to analyse about the skin</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Check Login for valid credentials</t>
-  </si>
-  <si>
-    <t>divya.d,*******</t>
-  </si>
-  <si>
     <t>VERIFY_LOGIN</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Create a set</t>
   </si>
   <si>
-    <t>&lt;Username&gt;,&lt;password&gt;</t>
-  </si>
-  <si>
     <t>&lt;Set Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;</t>
   </si>
   <si>
@@ -163,13 +154,1155 @@
   </si>
   <si>
     <t>Verify Logout</t>
+  </si>
+  <si>
+    <t>Check Login for valid credentials (Username and password given in Config properties file)</t>
+  </si>
+  <si>
+    <t>Verify_Dashboard</t>
+  </si>
+  <si>
+    <t>VerifyDashboard_Test</t>
+  </si>
+  <si>
+    <t>Verify Dashboard</t>
+  </si>
+  <si>
+    <t>Verify_User_Profile</t>
+  </si>
+  <si>
+    <t>VerifyUserProfile</t>
+  </si>
+  <si>
+    <t>Verify user profile</t>
+  </si>
+  <si>
+    <t>&lt;Profile Name&gt;</t>
+  </si>
+  <si>
+    <t>Mugunth Raman</t>
+  </si>
+  <si>
+    <t>Verify_Copy_Rights</t>
+  </si>
+  <si>
+    <t>VerifyCopyRights</t>
+  </si>
+  <si>
+    <t>Verify Copy Rights</t>
+  </si>
+  <si>
+    <t>Create_Global_Search</t>
+  </si>
+  <si>
+    <t>CreateGlobalSearch_Test</t>
+  </si>
+  <si>
+    <t>Create Global Search</t>
+  </si>
+  <si>
+    <t>Verify_Saved_Searches</t>
+  </si>
+  <si>
+    <t>VerifySavedSearches_Test</t>
+  </si>
+  <si>
+    <t>Verify the Saved searches</t>
+  </si>
+  <si>
+    <t>VerifyContactHelpDesk</t>
+  </si>
+  <si>
+    <t>VerifyContactHelpDesk_Test</t>
+  </si>
+  <si>
+    <t>VerifyUserManual</t>
+  </si>
+  <si>
+    <t>VerifyUserManual_Test</t>
+  </si>
+  <si>
+    <t>VerifyFAQ</t>
+  </si>
+  <si>
+    <t>VerifyFAQ_Test</t>
+  </si>
+  <si>
+    <t>View_Set</t>
+  </si>
+  <si>
+    <t>ViewSet_Test</t>
+  </si>
+  <si>
+    <t>Open and view a set</t>
+  </si>
+  <si>
+    <t>&lt;SetName to be opened&gt;</t>
+  </si>
+  <si>
+    <t>Create Set1</t>
+  </si>
+  <si>
+    <t>Create_Set_From_File</t>
+  </si>
+  <si>
+    <t>CreateSetFromFile_Test</t>
+  </si>
+  <si>
+    <t>Create a set from a file</t>
+  </si>
+  <si>
+    <t>&lt;SetName&gt;, &lt;entity to be selected&gt;,&lt;fileLocation&gt;</t>
+  </si>
+  <si>
+    <t>Set From File 1,Disease, C:\Users\MugunthRaman\git\EagleAutomation\Resources\Q4 - Upload file - 1 (2).xlsx</t>
+  </si>
+  <si>
+    <t>Create_Set_From_Set</t>
+  </si>
+  <si>
+    <t>CreateSetFromSet_Test</t>
+  </si>
+  <si>
+    <t>Create Set from an existing set</t>
+  </si>
+  <si>
+    <t>&lt;SetName&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;,&lt;Set to be created&gt;</t>
+  </si>
+  <si>
+    <t>Base Set 1,Disease,Kera,Set From Set 1</t>
+  </si>
+  <si>
+    <t>Search_In_Set_Expand</t>
+  </si>
+  <si>
+    <t>SearchInSetExpand_Test</t>
+  </si>
+  <si>
+    <t>Search a value in Set in expanded view</t>
+  </si>
+  <si>
+    <t>&lt;SetName&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;,&lt;Text to be searched in expand&gt;</t>
+  </si>
+  <si>
+    <t>Search Set 1,Disease,Kera,le</t>
+  </si>
+  <si>
+    <t>Set_Expand_Add_From_Catalog</t>
+  </si>
+  <si>
+    <t>SetExpandAddFromCatalog_Test</t>
+  </si>
+  <si>
+    <t>Add items from catalog to Set (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;SetName&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;,&lt;Text to be searched in Catalog&gt;</t>
+  </si>
+  <si>
+    <t>Set From Catalog 1,Disease,Kera,migraine</t>
+  </si>
+  <si>
+    <t>Set_Expand_Add_From_Set</t>
+  </si>
+  <si>
+    <t>SetExpandAddFromSet_Test</t>
+  </si>
+  <si>
+    <t>Add items from another set to Set (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;BaseSet&gt;,&lt;entity to be selected&gt;,&lt;search text in base&gt;,&lt;Name of the set to be added into&gt;,&lt;search text in set to be added into&gt;</t>
+  </si>
+  <si>
+    <t>Base Set 2,Disease,leukocytes,Set Add Set expand 1, Kera</t>
+  </si>
+  <si>
+    <t>Set_Expand_Add_From_File</t>
+  </si>
+  <si>
+    <t>SetExpandAddFromFile_Test</t>
+  </si>
+  <si>
+    <t>Add items from file to Set (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;SetName&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;,&lt;Entity type for the file to be uploaded&gt;,&lt;file Location&gt;,&lt;file Name&gt;</t>
+  </si>
+  <si>
+    <t>ESFile 1,Disease,kera,Disease, C:\Users\MugunthRaman\git\EagleAutomation\Resources\Q4 - Upload file - 1 (2).xlsx, Q4 - Upload file - 1 (2).xlsx</t>
+  </si>
+  <si>
+    <t>Delete_Card_In_Set_Expand</t>
+  </si>
+  <si>
+    <t>DeleteCardInSetExpand_Test</t>
+  </si>
+  <si>
+    <t>Delete a set via the delete option in expanded view</t>
+  </si>
+  <si>
+    <t>DeleteCard 1,Disease,kera</t>
+  </si>
+  <si>
+    <t>Remove_Items_from_Set</t>
+  </si>
+  <si>
+    <t>RemoveItemsfromSet_Test</t>
+  </si>
+  <si>
+    <t>Remove items from set in expanded view</t>
+  </si>
+  <si>
+    <t>&lt;Set Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;,&lt;Item 1 to be removed&gt;, &lt;Item 2 to be removed&gt;,&lt;Item 3 to be removed&gt;</t>
+  </si>
+  <si>
+    <t>Remove Item Set, Disease, sulf, Orphanet_79173,EFO_0007864, MONDO_0056803</t>
+  </si>
+  <si>
+    <t>Avoid giving in items that are either at the first 2 rows or at the last 2</t>
+  </si>
+  <si>
+    <t>Grid_Changes_In_Set</t>
+  </si>
+  <si>
+    <t>GridChangesInSet_Test</t>
+  </si>
+  <si>
+    <t>Apply grid changes to a set (Row number, Primary column and Secondary column)</t>
+  </si>
+  <si>
+    <t>&lt;Set Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;, &lt;No of rows to be set&gt;, &lt;Primary column to be set&gt;, &lt;Secondary column to be set&gt;</t>
+  </si>
+  <si>
+    <t>GridSet, Disease, Kera, 10, Definition, Identifier</t>
+  </si>
+  <si>
+    <t>Create_And_Delete_Set</t>
+  </si>
+  <si>
+    <t>CreateAndDeleteSet_Test</t>
+  </si>
+  <si>
+    <t>Create a set and delete the same set</t>
+  </si>
+  <si>
+    <t>Delete Set1,Disease,kera</t>
+  </si>
+  <si>
+    <t>Create_And_Share_Set</t>
+  </si>
+  <si>
+    <t>CreateAndShareSet_Test</t>
+  </si>
+  <si>
+    <t>Create a set and share the same set</t>
+  </si>
+  <si>
+    <t>&lt;Set Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;,&lt;mailId To Share To&gt;</t>
+  </si>
+  <si>
+    <t>Share Set1,Disease,kera,ChandraSekhara.ReddyMoola@eaglegenomics.com</t>
+  </si>
+  <si>
+    <t>Delete_Set</t>
+  </si>
+  <si>
+    <t>DeleteSet_Test</t>
+  </si>
+  <si>
+    <t>Delete an already existing set</t>
+  </si>
+  <si>
+    <t>&lt;Set name to be deleted&gt;</t>
+  </si>
+  <si>
+    <t>Share_Set</t>
+  </si>
+  <si>
+    <t>ShareSet_Test</t>
+  </si>
+  <si>
+    <t>Share an already existing set</t>
+  </si>
+  <si>
+    <t>&lt;Set name to be shared&gt;,&lt;mail Id To Share To&gt;</t>
+  </si>
+  <si>
+    <t>GridSet,ChandraSekhara.ReddyMoola@eaglegenomics.com</t>
+  </si>
+  <si>
+    <t>Sort_Column_Set</t>
+  </si>
+  <si>
+    <t>SortColumnSet_Test</t>
+  </si>
+  <si>
+    <t>Sort a column of choice in a set (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Set Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt; ,&lt;column to be sorted&gt;</t>
+  </si>
+  <si>
+    <t>SortSet, Disease, pero, EFO Name</t>
+  </si>
+  <si>
+    <t>Filter_Set</t>
+  </si>
+  <si>
+    <t>FilterSet_Test</t>
+  </si>
+  <si>
+    <t>Filter the set records by applying one filter (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Set Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;,&lt;Column to be filtered&gt;,&lt;Filter type&gt;,&lt;Filter Text to be entered&gt;</t>
+  </si>
+  <si>
+    <t>Filter Set1,Disease,kera, EFO Name,contains,vul</t>
+  </si>
+  <si>
+    <t>Filter type can only be "contains" or "equals" and filter column refers to the attribute name</t>
+  </si>
+  <si>
+    <t>Filter_Multi_Set</t>
+  </si>
+  <si>
+    <t>FilterMultiSet_Test</t>
+  </si>
+  <si>
+    <t>Filter the set records by applying 2 filters (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Set Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating set&gt;,&lt;Filter 1 - Column to be filtered&gt;,&lt;Filter 1 - Filter type&gt;,&lt;Filter 1 - Filter Text to be entered&gt;,&lt;Filter 2 - Column to be filtered&gt;,&lt;Filter 2 - Filter type&gt;,&lt;Filter 2 - Filter Text to be entered&gt;</t>
+  </si>
+  <si>
+    <t>Filter Set Multi 1,Disease,kera, EFO Name,contains,vul, EFO ID, equals,EFO_1000778</t>
+  </si>
+  <si>
+    <t>Create_Exploration_From_Set_Initally</t>
+  </si>
+  <si>
+    <t>CreateExplorationFromSetInitally_Test</t>
+  </si>
+  <si>
+    <t>Create Exploration using ""select a set" option</t>
+  </si>
+  <si>
+    <t>&lt;set Name to be added&gt;, &lt;entity to be selected&gt;, &lt;search text for creating set&gt;, &lt;Exploration Name to be created&gt;</t>
+  </si>
+  <si>
+    <t>SetAdd 1, Disease, kera, ExDirect From Set 1</t>
+  </si>
+  <si>
+    <t>Create_Exploration_From_Set</t>
+  </si>
+  <si>
+    <t>CreateExplorationFromSet_Test</t>
+  </si>
+  <si>
+    <t>Create exploration from Set (after selecting search option)</t>
+  </si>
+  <si>
+    <t>SetAdd 2,Disease,kera,ExFrom Set 2</t>
+  </si>
+  <si>
+    <t>Create_Exploration_From_File</t>
+  </si>
+  <si>
+    <t>CreateExplorationFromFile_Test</t>
+  </si>
+  <si>
+    <t>Create exploration from file (after selecting search option)</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;, &lt;entity to be selected&gt;, &lt;fileLocation&gt;</t>
+  </si>
+  <si>
+    <t>ExFileUpload, Disease, C:\Users\MugunthRaman\git\EagleAutomation\Resources\Q4 - Upload file - 1 (2).xlsx</t>
+  </si>
+  <si>
+    <t>Search_In_Exploration_Expand</t>
+  </si>
+  <si>
+    <t>SearchInExplorationExpand_Test</t>
+  </si>
+  <si>
+    <t>Search a value in Exploration  in expanded view</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;, &lt;entity to be selected&gt;, &lt;search text for creating Exploration&gt;,&lt;Text to be searched in expand&gt;</t>
+  </si>
+  <si>
+    <t>search Exploration, Disease, kera, le</t>
+  </si>
+  <si>
+    <t>Delete_Card_In_Exploration_Expand</t>
+  </si>
+  <si>
+    <t>DeleteCardInExplorationExpand_Test</t>
+  </si>
+  <si>
+    <t>Delete a Exploration via the delete option in expanded view</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;, &lt;entity to be selected&gt;, &lt;search text for creating Exploration&gt;</t>
+  </si>
+  <si>
+    <t>DExploration2, Disease, kera</t>
+  </si>
+  <si>
+    <t>Delete_Exploration_FirstCard</t>
+  </si>
+  <si>
+    <t>DeleteExplorationFirstCard_Test</t>
+  </si>
+  <si>
+    <t>Create an Exploration and delete the base card</t>
+  </si>
+  <si>
+    <t>DExploration1Card, Disease, kera</t>
+  </si>
+  <si>
+    <t>Delete_Exploration_SecondCard</t>
+  </si>
+  <si>
+    <t>DeleteExplorationSecondCard_Test</t>
+  </si>
+  <si>
+    <t>Create an Exploration with 2 cards and delete the second card</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;, &lt;entity to be selected&gt;, &lt;search text for creating Exploration&gt;,&lt;entity of the second card&gt;</t>
+  </si>
+  <si>
+    <t>DExploration2Card, Disease, kera, Gene</t>
+  </si>
+  <si>
+    <t>Exploration_Expand_Add_From_Catalog</t>
+  </si>
+  <si>
+    <t>ExplorationExpandAddFromCatalog_Test</t>
+  </si>
+  <si>
+    <t>Add items from catalog to Exploration (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;, &lt;entity to be selected&gt;, &lt;search text for creating Exploration&gt;,&lt;text to be searched in catalog&gt;</t>
+  </si>
+  <si>
+    <t>ExpAddFromCatalog, Disease, aber, dengue</t>
+  </si>
+  <si>
+    <t>Exploration_Expand_Add_From_Set</t>
+  </si>
+  <si>
+    <t>ExplorationExpandAddFromSet_Test</t>
+  </si>
+  <si>
+    <t>Add items from another set to Exploration (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Set Name to be created&gt;, &lt;entity to be selected&gt;, &lt;search text for creating Set&gt;,&lt;Exploration Name to be created&gt;,&lt;search text for creating Exploration&gt;</t>
+  </si>
+  <si>
+    <t>SetAdd 1, Disease, leukocytes, ExpAddFromSet, aber</t>
+  </si>
+  <si>
+    <t>Exploration_Expand_Add_From_File</t>
+  </si>
+  <si>
+    <t>ExplorationExpandAddFromFile_Test</t>
+  </si>
+  <si>
+    <t>Add items from file to Exploration (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;, &lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt;,&lt;Entity type for the file to be uploaded&gt;,&lt;file Location&gt;,&lt;file Name&gt;</t>
+  </si>
+  <si>
+    <t>ExpAddfromFile 1,Disease,kera,Disease, C:\Users\MugunthRaman\git\EagleAutomation\Resources\Q4 - Upload file - 1 (2).xlsx, Q4 - Upload file - 1 (2).xlsx</t>
+  </si>
+  <si>
+    <t>Exploration_Create_A_RelationCard</t>
+  </si>
+  <si>
+    <t>ExplorationCreateARelationCard_Test</t>
+  </si>
+  <si>
+    <t>Create an exploration with 1 relation card</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;, &lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt;, &lt;Entity of the 1st relation card&gt;</t>
+  </si>
+  <si>
+    <t>ExpRela 1, Disease, kera, Gene</t>
+  </si>
+  <si>
+    <t>Exploration_Create_Two_RelationCard</t>
+  </si>
+  <si>
+    <t>ExplorationCreateTwoRelationCard_Test</t>
+  </si>
+  <si>
+    <t>Create an exploration with 2 relation cards</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;, &lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt;, &lt;Entity of the 1st relation card&gt;, &lt;Entity of the 2nd relation card&gt;,&lt;No of items to be selected in the 1st relation card&gt;</t>
+  </si>
+  <si>
+    <t>ExpRela 2, Disease, kera, Gene,SNP,5</t>
+  </si>
+  <si>
+    <t>Create_And_Delete_Exploration</t>
+  </si>
+  <si>
+    <t>CreateAndDeleteExploration_Test</t>
+  </si>
+  <si>
+    <t>Create an exploration and delete the same set</t>
+  </si>
+  <si>
+    <t>Delete Exp1,Disease,kera</t>
+  </si>
+  <si>
+    <t>Create_And_Share_Exploration</t>
+  </si>
+  <si>
+    <t>CreateAndShareExploration_Test</t>
+  </si>
+  <si>
+    <t>Create an exploration and share the same set</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt;,&lt;mailId To Share To&gt;</t>
+  </si>
+  <si>
+    <t>Share Exp1,Disease,kera,ChandraSekhara.ReddyMoola@eaglegenomics.com</t>
+  </si>
+  <si>
+    <t>Delete_Exploration</t>
+  </si>
+  <si>
+    <t>DeleteExploration_Test</t>
+  </si>
+  <si>
+    <t>Delete an already existing exploration</t>
+  </si>
+  <si>
+    <t>&lt;Exploration name to be deleted&gt;</t>
+  </si>
+  <si>
+    <t>ExpAddFromSet</t>
+  </si>
+  <si>
+    <t>Share_Exploration</t>
+  </si>
+  <si>
+    <t>ShareExploration_Test</t>
+  </si>
+  <si>
+    <t>Share an already existing exploration</t>
+  </si>
+  <si>
+    <t>&lt;Exploration name to be shared&gt;,&lt;mail Id To Share To&gt;</t>
+  </si>
+  <si>
+    <t>ExSearch 1,ChandraSekhara.ReddyMoola@eaglegenomics.com</t>
+  </si>
+  <si>
+    <t>Remove_Items_from_Exploration</t>
+  </si>
+  <si>
+    <t>RemoveItemsfromExploration_Test</t>
+  </si>
+  <si>
+    <t>Remove items from Exploration in expanded view</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt;,&lt;Item 1 to be removed&gt;, &lt;Item 2 to be removed&gt;,&lt;Item 3 to be removed&gt;</t>
+  </si>
+  <si>
+    <t>Remove Item Exploration,RNA,asb,AL160411.1,AC060814.4,AL022100.1</t>
+  </si>
+  <si>
+    <t>Sort_Column_Exploration</t>
+  </si>
+  <si>
+    <t>SortColumnExploration_Test</t>
+  </si>
+  <si>
+    <t>Sort a column of choice in an exploration (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt; ,&lt;column to be sorted&gt;</t>
+  </si>
+  <si>
+    <t>SortExploration, Disease, Kera, EFO Name</t>
+  </si>
+  <si>
+    <t>Filter_Exploration</t>
+  </si>
+  <si>
+    <t>FilterExploration_Test</t>
+  </si>
+  <si>
+    <t>Filter the exploration records by applying one filter (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt;,&lt;Column to be filtered&gt;,&lt;Filter type&gt;,&lt;Filter Text to be entered&gt;</t>
+  </si>
+  <si>
+    <t>Filter Exploration1,Disease,kera, EFO Name,contains,vul</t>
+  </si>
+  <si>
+    <t>Filter_Multi_Exploration</t>
+  </si>
+  <si>
+    <t>FilterMultiExploration_Test</t>
+  </si>
+  <si>
+    <t>Filter the exploration records by applying 2 filters (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Exploration Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt;,&lt;Filter 1 - Column to be filtered&gt;,&lt;Filter 1 - Filter type&gt;,&lt;Filter 1 - Filter Text to be entered&gt;,&lt;Filter 2 - Column to be filtered&gt;,&lt;Filter 2 - Filter type&gt;,&lt;Filter 2 - Filter Text to be entered&gt;</t>
+  </si>
+  <si>
+    <t>Filter Exploration Multi 1,Disease,kera, EFO Name,contains,vul, EFO ID, equals,EFO_1000778</t>
+  </si>
+  <si>
+    <t>CreateComparisonFromSet</t>
+  </si>
+  <si>
+    <t>CreateComparisonFromSet_Test</t>
+  </si>
+  <si>
+    <t>Create a comparison from set</t>
+  </si>
+  <si>
+    <t>&lt;setName&gt;, &lt;entity to be selected&gt;, &lt;search text for creating set&gt;, &lt;Comparison Name&gt;, &lt;Control Set Name&gt;</t>
+  </si>
+  <si>
+    <t>SetAddC 1, Disease,kera, ComFrom Set 1, Control Card</t>
+  </si>
+  <si>
+    <t>CreateComparisonFromFile</t>
+  </si>
+  <si>
+    <t>CreateComparisonFromFile_Test</t>
+  </si>
+  <si>
+    <t>Create a comparison from file</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be created&gt;, &lt;Control Set Name&gt;, &lt;entity to be selected&gt;,  &lt;fileLocation&gt;</t>
+  </si>
+  <si>
+    <t>ComFileUpload, Control Set, Disease, C:\Users\MugunthRaman\git\EagleAutomation\Resources\Q4 - Upload file - 1 (2).xlsx</t>
+  </si>
+  <si>
+    <t>CreateComparisonWithContolandCase</t>
+  </si>
+  <si>
+    <t>CreateComparisonWithContolandCase_Test</t>
+  </si>
+  <si>
+    <t>Create a comparison with a control card and a case card</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be created&gt;, &lt;Control Set Name&gt;, &lt;Case set Name&gt;, &lt;entity to be selected&gt;, &lt;search text for creating Comparison control&gt;, &lt;search text for creating Comparison case&gt;</t>
+  </si>
+  <si>
+    <t>Comparison Control and Case 1, Control Set, Case Set, Disease, kera,buy</t>
+  </si>
+  <si>
+    <t>createComparisonWithControlandCaseRunComparison</t>
+  </si>
+  <si>
+    <t>createComparisonWithControlandCaseRunComparison_Test</t>
+  </si>
+  <si>
+    <t>Create a comparison with a control card and a case card and also run comparison</t>
+  </si>
+  <si>
+    <t>Comparison Control and Case 2, Control Set, Case Set,Disease, kera,buy</t>
+  </si>
+  <si>
+    <t>updateComparisonWithCaseCard</t>
+  </si>
+  <si>
+    <t>updateComparisonWithCaseCard_Test</t>
+  </si>
+  <si>
+    <t>Update and already exisiting comparison by adding a case card</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,  &lt;entity to be selected&gt;, &lt;Case set Name to be added&gt;, &lt;search text for creating additional case set&gt;</t>
+  </si>
+  <si>
+    <t>Comparison Control and Case 1_222840, Disease, Case Set2,sor</t>
+  </si>
+  <si>
+    <t>SearchInComparisonExpand</t>
+  </si>
+  <si>
+    <t>SearchInComparisonExpand_Test</t>
+  </si>
+  <si>
+    <t>Search a value in Comparison  in expanded view</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Comparison control&gt;, &lt;searchTextInExpand&gt;</t>
+  </si>
+  <si>
+    <t>search Comparison,Control Set ,Disease, kera, le</t>
+  </si>
+  <si>
+    <t>DeleteCardInComparisonExpand</t>
+  </si>
+  <si>
+    <t>DeleteCardInComparisonExpand_Test</t>
+  </si>
+  <si>
+    <t>Delete a Comparison via the delete option in expanded view</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Comparison control&gt;</t>
+  </si>
+  <si>
+    <t>DComparison2, Control Set,Disease, kera</t>
+  </si>
+  <si>
+    <t>DeleteComparisonFirstCard</t>
+  </si>
+  <si>
+    <t>DeleteComparisonFirstCard_Test</t>
+  </si>
+  <si>
+    <t>Delete the first card in comparison</t>
+  </si>
+  <si>
+    <t>DComparison1Card,Control Set, Disease, kera</t>
+  </si>
+  <si>
+    <t>DeleteComparisonSecondCard</t>
+  </si>
+  <si>
+    <t>DeleteComparisonSecondCard_Test</t>
+  </si>
+  <si>
+    <t>Delete the second card in comparison</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;Case Set Name&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Comparison control&gt;, &lt;search text for creating Comparison case&gt;</t>
+  </si>
+  <si>
+    <t>DComparison2Card, Control Card,Case Card ,Disease, kera,worm</t>
+  </si>
+  <si>
+    <t>ComparisonExpandAddFromCatalog</t>
+  </si>
+  <si>
+    <t>ComparisonExpandAddFromCatalog_Test</t>
+  </si>
+  <si>
+    <t>Add items from catalog to Comparison (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;entity to be selected&gt;, &lt;search text for creating Comparison control&gt;, &lt;search Text In Catalog&gt;</t>
+  </si>
+  <si>
+    <t>ComAddFromCatalog, Control Card, Disease, aber, worm</t>
+  </si>
+  <si>
+    <t>ComparisonExpandAddFromSet</t>
+  </si>
+  <si>
+    <t>ComparisonExpandAddFromSet_Test</t>
+  </si>
+  <si>
+    <t>Add items from another set to Comparison (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;BaseSet&gt;,&lt;entity to be selected&gt;,&lt;search text in base set&gt;,&lt;Name of the Comparison&gt;,&lt;Control Set Name&gt;,&lt;search text for creating Comparison control&gt;</t>
+  </si>
+  <si>
+    <t>SetAdd 1, Disease, aber,ComAddFromSet, Control Card,dol</t>
+  </si>
+  <si>
+    <t>ComparisonExpandAddFromFile</t>
+  </si>
+  <si>
+    <t>ComparisonExpandAddFromFile_Test</t>
+  </si>
+  <si>
+    <t>Add items from file to Comparison (Expanded view)</t>
+  </si>
+  <si>
+    <t>ComAddfromFile 1,Control Card, Disease,kera,Disease, C:\Users\MugunthRaman\git\EagleAutomation\Resources\Q4 - Upload file - 1 (2).xlsx, Q4 - Upload file - 1 (2).xlsx</t>
+  </si>
+  <si>
+    <t>ComparisonCreateMultipleCaseCards</t>
+  </si>
+  <si>
+    <t>ComparisonCreateMultipleCaseCards_Test</t>
+  </si>
+  <si>
+    <t>Create 'n' number of case cards with a comparison</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;entity to be selected&gt;, &lt;search text for creating Comparison control&gt;,&lt;No. of case cards to create&gt;</t>
+  </si>
+  <si>
+    <t>CompRela 2, Control Set, Disease, kera, 2</t>
+  </si>
+  <si>
+    <t>ComparisonCreateMultipleCaseCardsRunComparison</t>
+  </si>
+  <si>
+    <t>ComparisonCreateMultipleCaseCardsRunComparison_Test</t>
+  </si>
+  <si>
+    <t>Create 'n' number of case cards with a comparison and run comaparison</t>
+  </si>
+  <si>
+    <t>CompRela 3, Control Set,  Disease, kera, 3</t>
+  </si>
+  <si>
+    <t>CreateAndDeleteComparison</t>
+  </si>
+  <si>
+    <t>CreateAndDeleteComparison_Test</t>
+  </si>
+  <si>
+    <t>Create a comparison and delete the same set</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;entity to be selected&gt;, &lt;search text for creating Comparison control&gt;</t>
+  </si>
+  <si>
+    <t>Delete Com1, Control Set, Disease,kera</t>
+  </si>
+  <si>
+    <t>CreateAndShareComparison</t>
+  </si>
+  <si>
+    <t>CreateAndShareComparison_Test</t>
+  </si>
+  <si>
+    <t>Create a comparison and share the same set</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;entity to be selected&gt;, &lt;search text for creating Comparison control&gt;,&lt;mail Id To Share To&gt;</t>
+  </si>
+  <si>
+    <t>Share Com1, Control Set,Disease,kera,ChandraSekhara.ReddyMoola@eaglegenomics.com</t>
+  </si>
+  <si>
+    <t>DeleteComparison</t>
+  </si>
+  <si>
+    <t>DeleteComparison_Test</t>
+  </si>
+  <si>
+    <t>Delete an already existing comparison</t>
+  </si>
+  <si>
+    <t>&lt;ComparisonName to be deleted&gt;</t>
+  </si>
+  <si>
+    <t>search Comparison</t>
+  </si>
+  <si>
+    <t>ShareComparison</t>
+  </si>
+  <si>
+    <t>ShareComparison_Test</t>
+  </si>
+  <si>
+    <t>Share an already existing comparison</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be shared&gt;,&lt;mail Id To Share To&gt;</t>
+  </si>
+  <si>
+    <t>ComAddfromFile 1,ChandraSekhara.ReddyMoola@eaglegenomics.com</t>
+  </si>
+  <si>
+    <t>RemoveItemsfromComparison</t>
+  </si>
+  <si>
+    <t>RemoveItemsfromComparison_Test</t>
+  </si>
+  <si>
+    <t>Remove items from comparison in expanded view</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;entity to be selected&gt;, &lt;search text for creating Comparison control&gt;,&lt;1st item to be removed&gt;,&lt;2nd item to be removed&gt;,&lt;3rd item to be removed&gt;</t>
+  </si>
+  <si>
+    <t>Remove Item Comparison,Control Set ,Gene,asph,72112780,20981360,147670524</t>
+  </si>
+  <si>
+    <t>ChangeControlAndCase</t>
+  </si>
+  <si>
+    <t>ChangeControlAndCase_Test</t>
+  </si>
+  <si>
+    <t>Alter the Control and Case card in Comparison</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be selected&gt;,&lt;Control Set Name&gt;,&lt;Case Set Name&gt;,&lt;entity to be selected&gt;, &lt;search text for creating Comparison control&gt;, &lt;search text for creating Comparison Case&gt;</t>
+  </si>
+  <si>
+    <t>Control and Case Change, Control Set,Case Set, Disease, kera, dol</t>
+  </si>
+  <si>
+    <t>SortColumnComparison</t>
+  </si>
+  <si>
+    <t>SortColumnComparison_Test</t>
+  </si>
+  <si>
+    <t>Sort a column of choice in an comparison (Expanded view)</t>
+  </si>
+  <si>
+    <t>&lt;Comparison Name to be created&gt;,&lt;entity to be selected&gt;,&lt;search text for creating Exploration&gt; ,&lt;column to be sorted&gt;</t>
+  </si>
+  <si>
+    <t>SortComparison,ControlSet , Disease, Kera, EFO Name</t>
+  </si>
+  <si>
+    <t>FilterComparison</t>
+  </si>
+  <si>
+    <t>FilterComparison_Test</t>
+  </si>
+  <si>
+    <t>Filter the comparison records by applying one filter (Expanded view)</t>
+  </si>
+  <si>
+    <t>Filter Comparison1, Control Set, Disease,kera, EFO Name,contains,vul</t>
+  </si>
+  <si>
+    <t>FilterMultiComparison</t>
+  </si>
+  <si>
+    <t>FilterMultiComparison_Test</t>
+  </si>
+  <si>
+    <t>Filter the comparison records by applying 2 filters (Expanded view)</t>
+  </si>
+  <si>
+    <t>Filter Comparison Multi 1,Control Set,Disease,kera,EFO Name,contains,vul, EFO ID, equals,EFO_1000778</t>
+  </si>
+  <si>
+    <t>INV_VIEW</t>
+  </si>
+  <si>
+    <t>ViewInvestigation_Test</t>
+  </si>
+  <si>
+    <t>Skin Care 1</t>
+  </si>
+  <si>
+    <t>INV_EDIT</t>
+  </si>
+  <si>
+    <t>EditInvestigation_Test</t>
+  </si>
+  <si>
+    <t>Skin Care, Corona, To analysis the impact of the virus</t>
+  </si>
+  <si>
+    <t>INV_SETLINK</t>
+  </si>
+  <si>
+    <t>LinkSetWithInvestigation_Test</t>
+  </si>
+  <si>
+    <t>Skin Care, SetName1</t>
+  </si>
+  <si>
+    <t>INV_EXPOLINK</t>
+  </si>
+  <si>
+    <t>LinkExplorationWithInvestigation_Test</t>
+  </si>
+  <si>
+    <t>Skin Care, ExpoName1</t>
+  </si>
+  <si>
+    <t>INV_COMPLINK</t>
+  </si>
+  <si>
+    <t>LinkComparisonWithInvestigation_Test</t>
+  </si>
+  <si>
+    <t>Skin Care, CompName1</t>
+  </si>
+  <si>
+    <t>INV_SHARE</t>
+  </si>
+  <si>
+    <t>ShareInvestigation_Test</t>
+  </si>
+  <si>
+    <t>Skin Care, ChandraSekhara.ReddyMoola@eaglegenomics.com</t>
+  </si>
+  <si>
+    <t>INV_DELETE</t>
+  </si>
+  <si>
+    <t>DeleteInvestigation_Test</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>CreateAnalysis</t>
+  </si>
+  <si>
+    <t>CreateAnalysis_Test</t>
+  </si>
+  <si>
+    <t>Create an analysis</t>
+  </si>
+  <si>
+    <t>&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyName&gt;</t>
+  </si>
+  <si>
+    <t>Analysis-1,Analysis Description,Eagle Study A</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>CreateAnalysisMandatoryCheck</t>
+  </si>
+  <si>
+    <t>CreateAnalysisMandatoryCheck_Test</t>
+  </si>
+  <si>
+    <t>Create an analysis after doing all the mandatory field check</t>
+  </si>
+  <si>
+    <t>Analysis-2, Test Description for Analysis Check,Eagle Study A</t>
+  </si>
+  <si>
+    <t>AnalysisNameAndDescEditInList</t>
+  </si>
+  <si>
+    <t>AnalysisNameAndDescEditInList_Test</t>
+  </si>
+  <si>
+    <t>Create an Analysis and Edit the name and description from the list view</t>
+  </si>
+  <si>
+    <t>&lt;AnalysisNameInital&gt;, &lt;AnalysisDescriptionInital&gt;, &lt;StudyName&gt;, &lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;</t>
+  </si>
+  <si>
+    <t>Analysis-3,Analysis Description,Eagle Study A,Name of [Analysis&gt;: is changed, Description of [Analysis&gt;: is changed</t>
+  </si>
+  <si>
+    <t>AnalysisNameAndDescEditInPage</t>
+  </si>
+  <si>
+    <t>AnalysisNameAndDescEditInPage_Test</t>
+  </si>
+  <si>
+    <t>Create an Analysis and Edit the name and description inside the analysis page view</t>
+  </si>
+  <si>
+    <t>Analysis-4,Far far away behind the word mountains far from the countries Vokalia and Consonantia there live the blind texts. Separated they live in Bookmarksgrove right at the coast of the Semantics a large language ocean. A small river named Duden flows by their place and supplies it with the necessary regelialia. It is a paradisematic country in which roasted parts of sentences fly into your mouth. Even the all-powerful Pointing has no control about the blind texts it is an almost unorthographic life One day however a small line of blind text by the name of Lorem Ipsum decided to leave for the far,Eagle Study A,Name of ()@#$Analysis{}: is changed, Description small, Description of ()@#$Analysis{}: is changed</t>
+  </si>
+  <si>
+    <t>CreateAndDeleteAnalysis</t>
+  </si>
+  <si>
+    <t>CreateAndDeleteAnalysis_Test</t>
+  </si>
+  <si>
+    <t>Create an Analysis and Delete the same</t>
+  </si>
+  <si>
+    <t>Analysis-5,Analysis Description,Eagle Study A</t>
+  </si>
+  <si>
+    <t>VerifyGraphCanvas</t>
+  </si>
+  <si>
+    <t>VerifyGraphCanvas_Test</t>
+  </si>
+  <si>
+    <t>Verify if the graph canvas is displayed and the assosciated entities are present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyName&gt;, &lt;NoOfEntities&gt;, &lt;Entitiy name 1&gt;, &lt;Entitiy name 2&gt;, &lt;Entitiy name 3&gt;, ….. &lt;Entitiy name (NoOfEntities)&gt;
+</t>
+  </si>
+  <si>
+    <t>VerifyResizingOfGraphCanvas</t>
+  </si>
+  <si>
+    <t>VerifyResizingOfGraph_Test</t>
+  </si>
+  <si>
+    <t>Verify if the expand and different views of Graph canvas are working fine</t>
+  </si>
+  <si>
+    <t>VerifyNumericalValueAnalysis</t>
+  </si>
+  <si>
+    <t>VerifyNumericalValueAnalysis_Test</t>
+  </si>
+  <si>
+    <t>Create an Analysis and select a Numerical feature and verify the labels</t>
+  </si>
+  <si>
+    <t>&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyName&gt;, &lt;Entity Name&gt;, &lt;Feature Name&gt;</t>
+  </si>
+  <si>
+    <t>Numerical Value Analysis, Numerical Value Analysis, Eagle Study A,Subject,body_mass_index</t>
+  </si>
+  <si>
+    <t>VerifyCategoticalValueAnalysis</t>
+  </si>
+  <si>
+    <t>VerifyCategoticalValueAnalysis_Test</t>
+  </si>
+  <si>
+    <t>Categorical Value Analysis, Categorical Value Analysis,Eagle Study A,Subject,disease</t>
+  </si>
+  <si>
+    <t>SelectCategoricalAndNumericalFeatures</t>
+  </si>
+  <si>
+    <t>SelectCategoricalAndNumericalFeatures_Test</t>
+  </si>
+  <si>
+    <t>Select Categorical and numerical features from Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyName&gt;, &lt;NoOfEntitiyAndFeaturePairs&gt;, &lt;Entitiy name 1&gt;, &lt;Feature  name 1&gt;, &lt;Entitiy name 2&gt;, &lt;Feature  name 2&gt; ….. &lt;Entitiy name (NoOfEntities)&gt;, &lt;Feature  name (NoOfEntities)&gt;
+</t>
+  </si>
+  <si>
+    <t>Feature Selection Analysis, Feature Selection Analysis,Eagle Study A,5,</t>
+  </si>
+  <si>
+    <t>Graph Canvas Analysis, Graph Canvas Analysis,1,5,The Study, Trial, Organism, Subject, Measurement</t>
+  </si>
+  <si>
+    <t>Resizing Graph Canvas Analysis, Resizing Graph Canvas Analysis, 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +1347,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,28 +1376,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -375,83 +1514,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,14 +1762,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B81FA363-8335-4CA5-BD79-BF677456D3C2}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E8" xr:uid="{B81FA363-8335-4CA5-BD79-BF677456D3C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84F9C00-4B58-4FE4-8736-76A0D10CB510}" name="Table22" displayName="Table22" ref="A1:E97" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E97" xr:uid="{F84F9C00-4B58-4FE4-8736-76A0D10CB510}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{86135FFC-C988-4F48-82DC-A41C181BA09E}" name="Test Case#" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C46EA655-3EFD-4B21-A644-8A7F51CB4F27}" name="FunctionName" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FDAD99A8-3FCD-465F-B419-AAFB06B7EA4E}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4730EDB2-8FEB-4FAE-97C5-547308A4D4D9}" name="Parameters" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{F14B9AFB-5FBF-49C3-808B-BAEB38FB0B82}" name="Test Data" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{044C6287-4F01-4EBE-97F4-2CCF006CC8FB}" name="Test Case#" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2D893039-D6AC-4615-88EE-4CE63C66E7F4}" name="FunctionName" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2FD9D44A-0AF2-4E93-9166-BD94F342C5F6}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C8875061-4510-402F-AA5E-12172C3695D8}" name="Parameters" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D9B356A5-8137-48BC-96A0-DF3B605A7FD8}" name="Test Data" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -800,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6CDC57-9314-4DDE-912B-780BF34D9001}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,161 +2096,1764 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="G2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43" s="33"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="33"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="33"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G54" s="33"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" s="33"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G64" s="33"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G65" s="33"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G67" s="33"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G68" s="33"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G69" s="33"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70" s="33"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G71" s="33"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G72" s="33"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G73" s="33"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G74" s="33"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G76" s="22"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G77" s="22"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G78" s="22"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G79" s="22"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" s="22"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G81" s="22"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G82" s="22"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G84" s="22"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G86" s="22"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G87" s="22"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="G88" s="22"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="G89" s="22"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G90" s="22"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G91" s="22"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G92" s="22"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="E93" s="6"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="E94" s="6"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="38"/>
+      <c r="E95" s="40"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="41"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8"/>
+      <c r="E96" s="6"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E97" s="3"/>
+      <c r="G97" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="G3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="G8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="11"/>
+      <c r="H97" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="G12:G29"/>
+    <mergeCell ref="G30:G50"/>
+    <mergeCell ref="G51:G74"/>
+    <mergeCell ref="G75:G82"/>
+    <mergeCell ref="G83:G96"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Resources/Configuration1.xlsx
+++ b/Resources/Configuration1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MugunthRaman\git\EagleAutomation\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MugunthRaman\git\Rough Practice\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B290B2-52F5-431F-A8FF-A88E9AA373FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E1748-9331-4E70-9E38-37F95BED3D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3883F32-F6B7-4344-89C2-CDCBDBE1FA77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="443">
   <si>
     <t>Skin Care, This is to analyse about the skin</t>
   </si>
@@ -1170,12 +1170,6 @@
     <t>Create an analysis</t>
   </si>
   <si>
-    <t>&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyName&gt;</t>
-  </si>
-  <si>
-    <t>Analysis-1,Analysis Description,Eagle Study A</t>
-  </si>
-  <si>
     <t>Analysis</t>
   </si>
   <si>
@@ -1188,9 +1182,6 @@
     <t>Create an analysis after doing all the mandatory field check</t>
   </si>
   <si>
-    <t>Analysis-2, Test Description for Analysis Check,Eagle Study A</t>
-  </si>
-  <si>
     <t>AnalysisNameAndDescEditInList</t>
   </si>
   <si>
@@ -1200,12 +1191,6 @@
     <t>Create an Analysis and Edit the name and description from the list view</t>
   </si>
   <si>
-    <t>&lt;AnalysisNameInital&gt;, &lt;AnalysisDescriptionInital&gt;, &lt;StudyName&gt;, &lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;</t>
-  </si>
-  <si>
-    <t>Analysis-3,Analysis Description,Eagle Study A,Name of [Analysis&gt;: is changed, Description of [Analysis&gt;: is changed</t>
-  </si>
-  <si>
     <t>AnalysisNameAndDescEditInPage</t>
   </si>
   <si>
@@ -1215,9 +1200,6 @@
     <t>Create an Analysis and Edit the name and description inside the analysis page view</t>
   </si>
   <si>
-    <t>Analysis-4,Far far away behind the word mountains far from the countries Vokalia and Consonantia there live the blind texts. Separated they live in Bookmarksgrove right at the coast of the Semantics a large language ocean. A small river named Duden flows by their place and supplies it with the necessary regelialia. It is a paradisematic country in which roasted parts of sentences fly into your mouth. Even the all-powerful Pointing has no control about the blind texts it is an almost unorthographic life One day however a small line of blind text by the name of Lorem Ipsum decided to leave for the far,Eagle Study A,Name of ()@#$Analysis{}: is changed, Description small, Description of ()@#$Analysis{}: is changed</t>
-  </si>
-  <si>
     <t>CreateAndDeleteAnalysis</t>
   </si>
   <si>
@@ -1227,9 +1209,6 @@
     <t>Create an Analysis and Delete the same</t>
   </si>
   <si>
-    <t>Analysis-5,Analysis Description,Eagle Study A</t>
-  </si>
-  <si>
     <t>VerifyGraphCanvas</t>
   </si>
   <si>
@@ -1239,10 +1218,6 @@
     <t>Verify if the graph canvas is displayed and the assosciated entities are present</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyName&gt;, &lt;NoOfEntities&gt;, &lt;Entitiy name 1&gt;, &lt;Entitiy name 2&gt;, &lt;Entitiy name 3&gt;, ….. &lt;Entitiy name (NoOfEntities)&gt;
-</t>
-  </si>
-  <si>
     <t>VerifyResizingOfGraphCanvas</t>
   </si>
   <si>
@@ -1252,57 +1227,149 @@
     <t>Verify if the expand and different views of Graph canvas are working fine</t>
   </si>
   <si>
-    <t>VerifyNumericalValueAnalysis</t>
-  </si>
-  <si>
-    <t>VerifyNumericalValueAnalysis_Test</t>
-  </si>
-  <si>
-    <t>Create an Analysis and select a Numerical feature and verify the labels</t>
-  </si>
-  <si>
-    <t>&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyName&gt;, &lt;Entity Name&gt;, &lt;Feature Name&gt;</t>
-  </si>
-  <si>
-    <t>Numerical Value Analysis, Numerical Value Analysis, Eagle Study A,Subject,body_mass_index</t>
-  </si>
-  <si>
-    <t>VerifyCategoticalValueAnalysis</t>
-  </si>
-  <si>
-    <t>VerifyCategoticalValueAnalysis_Test</t>
-  </si>
-  <si>
-    <t>Categorical Value Analysis, Categorical Value Analysis,Eagle Study A,Subject,disease</t>
-  </si>
-  <si>
-    <t>SelectCategoricalAndNumericalFeatures</t>
-  </si>
-  <si>
-    <t>SelectCategoricalAndNumericalFeatures_Test</t>
-  </si>
-  <si>
-    <t>Select Categorical and numerical features from Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyName&gt;, &lt;NoOfEntitiyAndFeaturePairs&gt;, &lt;Entitiy name 1&gt;, &lt;Feature  name 1&gt;, &lt;Entitiy name 2&gt;, &lt;Feature  name 2&gt; ….. &lt;Entitiy name (NoOfEntities)&gt;, &lt;Feature  name (NoOfEntities)&gt;
-</t>
-  </si>
-  <si>
-    <t>Feature Selection Analysis, Feature Selection Analysis,Eagle Study A,5,</t>
-  </si>
-  <si>
-    <t>Graph Canvas Analysis, Graph Canvas Analysis,1,5,The Study, Trial, Organism, Subject, Measurement</t>
-  </si>
-  <si>
-    <t>Resizing Graph Canvas Analysis, Resizing Graph Canvas Analysis, 2</t>
+    <t>Analysis-1,Analysis Description,1</t>
+  </si>
+  <si>
+    <t>Analysis-2, Test Description for Analysis Check,1</t>
+  </si>
+  <si>
+    <t>Analysis-3,Analysis Description,1,Name of [Analysis&gt;: is changed, Description of [Analysis&gt;: is changed</t>
+  </si>
+  <si>
+    <t>Analysis-4,Far far away behind the word mountains far from the countries Vokalia and Consonantia there live the blind texts. Separated they live in Bookmarksgrove right at the coast of the Semantics a large language ocean. A small river named Duden flows by their place and supplies it with the necessary regelialia. It is a paradisematic country in which roasted parts of sentences fly into your mouth. Even the all-powerful Pointing has no control about the blind texts it is an almost unorthographic life One day however a small line of blind text by the name of Lorem Ipsum decided to leave for the far,1,Name of ()@#$Analysis{}: is changed, Description small, Description of ()@#$Analysis{}: is changed</t>
+  </si>
+  <si>
+    <t>EntitiesAndFeatureSelectionVerificationInGraph_Test</t>
+  </si>
+  <si>
+    <t>PlotWithOneNumericalFeature_Test</t>
+  </si>
+  <si>
+    <t>PlotWithOneCategoricalFeature_Test</t>
+  </si>
+  <si>
+    <t>PlotWithOneCategoricalandOneNumericalFeature_Test</t>
+  </si>
+  <si>
+    <t>PlotWithTwoNumericalFeature_Test</t>
+  </si>
+  <si>
+    <t>PlotWithTwoCategoricalFeature_Test</t>
+  </si>
+  <si>
+    <t>PlotWithTwoNumericalandOneCategoricalFeatures_Test</t>
+  </si>
+  <si>
+    <t>PlotWithThreeNumericalFeatures_Test</t>
+  </si>
+  <si>
+    <t>PlotWithThreeNumericalandOneCategoricalFeatures_Test</t>
+  </si>
+  <si>
+    <t>EntitiesAndFeatureSelectionVerificationInGraph</t>
+  </si>
+  <si>
+    <t>PlotWithOneNumericalFeature</t>
+  </si>
+  <si>
+    <t>PlotWithOneCategoricalFeature</t>
+  </si>
+  <si>
+    <t>PlotWithOneCategoricalandOneNumericalFeature</t>
+  </si>
+  <si>
+    <t>PlotWithTwoNumericalFeature</t>
+  </si>
+  <si>
+    <t>PlotWithTwoCategoricalFeature</t>
+  </si>
+  <si>
+    <t>PlotWithTwoNumericalandOneCategoricalFeatures</t>
+  </si>
+  <si>
+    <t>PlotWithThreeNumericalFeatures</t>
+  </si>
+  <si>
+    <t>PlotWithThreeNumericalandOneCategoricalFeatures</t>
+  </si>
+  <si>
+    <t>&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyIndex&gt;</t>
+  </si>
+  <si>
+    <t>&lt;AnalysisNameInital&gt;, &lt;AnalysisDescriptionInital&gt;, &lt;studyIndex&gt;, &lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;</t>
+  </si>
+  <si>
+    <t>Analysis-5,Analysis Description,1</t>
+  </si>
+  <si>
+    <t>Verify the selection of entities, their count and verifying the selection in My Selection and Dataframe</t>
+  </si>
+  <si>
+    <t>Create and Verify different plots with one numeric value</t>
+  </si>
+  <si>
+    <t>Create and Verify different plots with one categorical value</t>
+  </si>
+  <si>
+    <t>Create and Verify different plots with one numeric and one categorical value</t>
+  </si>
+  <si>
+    <t>Create and Verify different plots with two numeric values</t>
+  </si>
+  <si>
+    <t>Create and Verify different plots with two categoric values</t>
+  </si>
+  <si>
+    <t>Create and Verify different plots with three numeric values</t>
+  </si>
+  <si>
+    <t>Create and Verify different plots with two numeric and one categoric values</t>
+  </si>
+  <si>
+    <t>Create and Verify different plots with three numeric and one categoric values</t>
+  </si>
+  <si>
+    <t>1Categorical1NumericalPlot,1Categorical1NumericalPlot,3,2,2</t>
+  </si>
+  <si>
+    <t>CategoricalPlot1,CategoricalPlot1,2,2,0</t>
+  </si>
+  <si>
+    <t>NumericalPlot1,NumericalPlot1,1,0,2</t>
+  </si>
+  <si>
+    <t>Resizing Graph Canvas Analysis,Resizing Graph Canvas Analysis,2</t>
+  </si>
+  <si>
+    <t>Graph Canvas Analysis, Graph Canvas Analysis,1,</t>
+  </si>
+  <si>
+    <t>2NumericalPlots,2NumericalPlots,1,0,4</t>
+  </si>
+  <si>
+    <t>2CategoricalPlots,2CategoricalPlots,2,3,0</t>
+  </si>
+  <si>
+    <t>3NumericalPlots,3NumericalPlots,1,0,4</t>
+  </si>
+  <si>
+    <t>2Numerical1CategoricalPlots,2Numerical1CategoricalPlots,2,2,3</t>
+  </si>
+  <si>
+    <t>3Numerical1CategoricalPlots,3Numerical1CategoricalPlots,1,2,4</t>
+  </si>
+  <si>
+    <t>&lt;AnalysisName&gt;, &lt;AnalysisDescription&gt;, &lt;studyIndex&gt;,&lt;NoOfCategoricalValuesRequired&gt;,&lt;NoOfNumericalValuesRequired&gt;</t>
+  </si>
+  <si>
+    <t>SelectionVerification,SelectionVerification,1,5,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,14 +1421,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1383,7 +1442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1584,11 +1643,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1641,9 +1715,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1652,9 +1723,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1674,14 +1742,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1689,41 +1778,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,8 +1821,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84F9C00-4B58-4FE4-8736-76A0D10CB510}" name="Table22" displayName="Table22" ref="A1:E97" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E97" xr:uid="{F84F9C00-4B58-4FE4-8736-76A0D10CB510}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84F9C00-4B58-4FE4-8736-76A0D10CB510}" name="Table22" displayName="Table22" ref="A1:E99" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E99" xr:uid="{F84F9C00-4B58-4FE4-8736-76A0D10CB510}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{044C6287-4F01-4EBE-97F4-2CCF006CC8FB}" name="Test Case#" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{2D893039-D6AC-4615-88EE-4CE63C66E7F4}" name="FunctionName" dataDxfId="3"/>
@@ -2072,15 +2131,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6CDC57-9314-4DDE-912B-780BF34D9001}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="1" customWidth="1"/>
@@ -2144,147 +2203,147 @@
         <v>35</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="33" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2303,7 +2362,7 @@
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="35" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="11"/>
@@ -2324,7 +2383,7 @@
       <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2343,7 +2402,7 @@
       <c r="E14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2362,7 +2421,7 @@
       <c r="E15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2381,7 +2440,7 @@
       <c r="E16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2400,7 +2459,7 @@
       <c r="E17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2419,7 +2478,7 @@
       <c r="E18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2438,7 +2497,7 @@
       <c r="E19" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2457,7 +2516,7 @@
       <c r="E20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2476,8 +2535,8 @@
       <c r="E21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="27" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2497,7 +2556,7 @@
       <c r="E22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2516,7 +2575,7 @@
       <c r="E23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2535,7 +2594,7 @@
       <c r="E24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2554,7 +2613,7 @@
       <c r="E25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2573,7 +2632,7 @@
       <c r="E26" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2592,7 +2651,7 @@
       <c r="E27" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2611,8 +2670,8 @@
       <c r="E28" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31" t="s">
+      <c r="G28" s="36"/>
+      <c r="H28" s="27" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2632,8 +2691,8 @@
       <c r="E29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="31" t="s">
+      <c r="G29" s="37"/>
+      <c r="H29" s="27" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2653,7 +2712,7 @@
       <c r="E30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="38" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="10"/>
@@ -2674,7 +2733,7 @@
       <c r="E31" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2693,7 +2752,7 @@
       <c r="E32" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2712,7 +2771,7 @@
       <c r="E33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="33"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2731,7 +2790,7 @@
       <c r="E34" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2750,7 +2809,7 @@
       <c r="E35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="33"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2769,7 +2828,7 @@
       <c r="E36" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G36" s="33"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2788,7 +2847,7 @@
       <c r="E37" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G37" s="33"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2807,7 +2866,7 @@
       <c r="E38" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2826,7 +2885,7 @@
       <c r="E39" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2845,7 +2904,7 @@
       <c r="E40" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G40" s="33"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2864,7 +2923,7 @@
       <c r="E41" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G41" s="33"/>
+      <c r="G41" s="38"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -2883,7 +2942,7 @@
       <c r="E42" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="38"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2902,7 +2961,7 @@
       <c r="E43" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G43" s="33"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2921,7 +2980,7 @@
       <c r="E44" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G44" s="33"/>
+      <c r="G44" s="38"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2940,7 +2999,7 @@
       <c r="E45" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G45" s="33"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2959,7 +3018,7 @@
       <c r="E46" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G46" s="33"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2978,8 +3037,8 @@
       <c r="E47" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="31" t="s">
+      <c r="G47" s="38"/>
+      <c r="H47" s="27" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2999,7 +3058,7 @@
       <c r="E48" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G48" s="33"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3018,29 +3077,29 @@
       <c r="E49" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="31" t="s">
+      <c r="G49" s="38"/>
+      <c r="H49" s="27" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="31" t="s">
+      <c r="G50" s="39"/>
+      <c r="H50" s="27" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3060,7 +3119,7 @@
       <c r="E51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="10"/>
@@ -3081,7 +3140,7 @@
       <c r="E52" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G52" s="33"/>
+      <c r="G52" s="38"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3100,7 +3159,7 @@
       <c r="E53" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G53" s="33"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3119,7 +3178,7 @@
       <c r="E54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G54" s="33"/>
+      <c r="G54" s="38"/>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3138,7 +3197,7 @@
       <c r="E55" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="G55" s="33"/>
+      <c r="G55" s="38"/>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3157,7 +3216,7 @@
       <c r="E56" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G56" s="33"/>
+      <c r="G56" s="38"/>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3176,7 +3235,7 @@
       <c r="E57" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G57" s="33"/>
+      <c r="G57" s="38"/>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3195,7 +3254,7 @@
       <c r="E58" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G58" s="33"/>
+      <c r="G58" s="38"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3214,7 +3273,7 @@
       <c r="E59" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G59" s="33"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3233,7 +3292,7 @@
       <c r="E60" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G60" s="33"/>
+      <c r="G60" s="38"/>
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3252,7 +3311,7 @@
       <c r="E61" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G61" s="33"/>
+      <c r="G61" s="38"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3271,7 +3330,7 @@
       <c r="E62" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G62" s="33"/>
+      <c r="G62" s="38"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3290,7 +3349,7 @@
       <c r="E63" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G63" s="33"/>
+      <c r="G63" s="38"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3309,7 +3368,7 @@
       <c r="E64" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="G64" s="33"/>
+      <c r="G64" s="38"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3328,7 +3387,7 @@
       <c r="E65" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="G65" s="33"/>
+      <c r="G65" s="38"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3347,7 +3406,7 @@
       <c r="E66" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G66" s="33"/>
+      <c r="G66" s="38"/>
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3366,7 +3425,7 @@
       <c r="E67" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="G67" s="33"/>
+      <c r="G67" s="38"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3385,7 +3444,7 @@
       <c r="E68" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G68" s="33"/>
+      <c r="G68" s="38"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3404,7 +3463,7 @@
       <c r="E69" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="G69" s="33"/>
+      <c r="G69" s="38"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3423,7 +3482,7 @@
       <c r="E70" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G70" s="33"/>
+      <c r="G70" s="38"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3442,7 +3501,7 @@
       <c r="E71" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G71" s="33"/>
+      <c r="G71" s="38"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3461,7 +3520,7 @@
       <c r="E72" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="G72" s="33"/>
+      <c r="G72" s="38"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3480,7 +3539,7 @@
       <c r="E73" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G73" s="33"/>
+      <c r="G73" s="38"/>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3490,16 +3549,16 @@
       <c r="B74" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="29" t="s">
         <v>243</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="G74" s="33"/>
+      <c r="G74" s="38"/>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,7 +3573,7 @@
       <c r="E75" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="10"/>
@@ -3529,7 +3588,7 @@
       <c r="E76" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="G76" s="22"/>
+      <c r="G76" s="34"/>
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3542,7 +3601,7 @@
       <c r="E77" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="G77" s="22"/>
+      <c r="G77" s="34"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3555,7 +3614,7 @@
       <c r="E78" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G78" s="22"/>
+      <c r="G78" s="34"/>
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3568,7 +3627,7 @@
       <c r="E79" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G79" s="22"/>
+      <c r="G79" s="34"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3581,7 +3640,7 @@
       <c r="E80" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G80" s="22"/>
+      <c r="G80" s="34"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3594,7 +3653,7 @@
       <c r="E81" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="G81" s="22"/>
+      <c r="G81" s="34"/>
       <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3607,7 +3666,7 @@
       <c r="E82" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="G82" s="22"/>
+      <c r="G82" s="34"/>
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3621,238 +3680,328 @@
         <v>377</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G83" s="33" t="s">
         <v>378</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>380</v>
       </c>
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="G84" s="22"/>
+        <v>398</v>
+      </c>
+      <c r="G84" s="34"/>
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G85" s="22"/>
+        <v>399</v>
+      </c>
+      <c r="G85" s="34"/>
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G86" s="22"/>
+        <v>400</v>
+      </c>
+      <c r="G86" s="34"/>
       <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="G87" s="22"/>
+        <v>421</v>
+      </c>
+      <c r="G87" s="34"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E88" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="G88" s="22"/>
+        <v>419</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="G88" s="34"/>
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="G89" s="34"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G90" s="34"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G91" s="34"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G92" s="34"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E89" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="C93" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G93" s="34"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G94" s="34"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G95" s="34"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G96" s="34"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="C97" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G97" s="34"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="E93" s="6"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="E94" s="6"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="E95" s="40"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="41"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="8"/>
-      <c r="E96" s="6"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="14" t="s">
+      <c r="C98" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="G98" s="34"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D99" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="G97" s="43" t="s">
+      <c r="E99" s="3"/>
+      <c r="G99" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H97" s="10"/>
+      <c r="H99" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G83:G98"/>
     <mergeCell ref="G3:G11"/>
     <mergeCell ref="G12:G29"/>
     <mergeCell ref="G30:G50"/>
     <mergeCell ref="G51:G74"/>
     <mergeCell ref="G75:G82"/>
-    <mergeCell ref="G83:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3860,4 +4009,248 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EDAA1EB1D58B449A665C8960057699D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f6f9e5c7980eb9729804970d16a34b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db720d58-4227-411f-bcee-c8e33b64d7b1" xmlns:ns3="63945a94-eccf-4e51-b06e-13c7875d9720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10a4f86fcee4fdd6d37add7357595ef5" ns2:_="" ns3:_="">
+    <xsd:import namespace="db720d58-4227-411f-bcee-c8e33b64d7b1"/>
+    <xsd:import namespace="63945a94-eccf-4e51-b06e-13c7875d9720"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="db720d58-4227-411f-bcee-c8e33b64d7b1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63945a94-eccf-4e51-b06e-13c7875d9720" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D048EEDF-20D5-4D6C-8913-2C96882DC3A5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75C9C1-550E-4A9A-B2F0-64D12EDD6744}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B47F016-EF6E-43F9-9014-BD8EC0BF0534}"/>
 </file>
--- a/Resources/Configuration1.xlsx
+++ b/Resources/Configuration1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MugunthRaman\git\Rough Practice\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MugunthRaman\git\EagleAutomation\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E1748-9331-4E70-9E38-37F95BED3D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F2656-FAF1-418A-9837-280AE90B1F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3883F32-F6B7-4344-89C2-CDCBDBE1FA77}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>&lt;Profile Name&gt;</t>
   </si>
   <si>
-    <t>Mugunth Raman</t>
-  </si>
-  <si>
     <t>Verify_Copy_Rights</t>
   </si>
   <si>
@@ -1363,13 +1360,16 @@
   </si>
   <si>
     <t>SelectionVerification,SelectionVerification,1,5,5</t>
+  </si>
+  <si>
+    <t>functional-tester-1@eagle-demos.eaglegenomics.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,6 +1417,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1659,10 +1667,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1784,8 +1793,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2133,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6CDC57-9314-4DDE-912B-780BF34D9001}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,21 +2251,21 @@
       <c r="D5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>48</v>
+      <c r="E5" s="41" t="s">
+        <v>442</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>35</v>
@@ -2263,13 +2276,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>35</v>
@@ -2280,13 +2293,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>35</v>
@@ -2297,13 +2310,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>59</v>
-      </c>
       <c r="C9" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>35</v>
@@ -2314,13 +2327,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="C10" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>35</v>
@@ -2331,13 +2344,13 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>63</v>
-      </c>
       <c r="C11" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>35</v>
@@ -2369,331 +2382,331 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2719,388 +2732,388 @@
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="G35" s="38"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="G37" s="38"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="G38" s="38"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="G39" s="38"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="G40" s="38"/>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="G41" s="38"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G43" s="38"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="G44" s="38"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="G45" s="38"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="G46" s="38"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="G47" s="38"/>
       <c r="H47" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="G48" s="38"/>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="G49" s="38"/>
       <c r="H49" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="C50" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="D50" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="E50" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>244</v>
       </c>
       <c r="G50" s="39"/>
       <c r="H50" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3126,437 +3139,437 @@
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="G52" s="38"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="G53" s="38"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="G54" s="38"/>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="G55" s="38"/>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="G56" s="38"/>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="G57" s="38"/>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="G58" s="38"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="G59" s="38"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="G60" s="38"/>
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="G61" s="38"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="G62" s="38"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="G63" s="38"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="G64" s="38"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="G65" s="38"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="G66" s="38"/>
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="G67" s="38"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="G68" s="38"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="G69" s="38"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="G70" s="38"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="G71" s="38"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="G72" s="38"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="G73" s="38"/>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="D74" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="G74" s="38"/>
       <c r="H74" s="10"/>
@@ -3580,397 +3593,397 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="E76" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="G76" s="34"/>
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="E77" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="E78" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="E79" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="G79" s="34"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="E80" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="G80" s="34"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="E81" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="E82" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="G82" s="34"/>
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G83" s="33" t="s">
         <v>377</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G83" s="33" t="s">
-        <v>378</v>
       </c>
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G84" s="34"/>
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G85" s="34"/>
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G86" s="34"/>
       <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G87" s="34"/>
       <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G88" s="34"/>
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="D89" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D90" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="G90" s="34"/>
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G91" s="34"/>
       <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G92" s="34"/>
       <c r="H92" s="10"/>
     </row>
     <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G93" s="34"/>
       <c r="H93" s="10"/>
     </row>
     <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G94" s="34"/>
       <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G95" s="34"/>
       <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G96" s="34"/>
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G97" s="34"/>
       <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G98" s="34"/>
       <c r="H98" s="10"/>
@@ -4003,254 +4016,13 @@
     <mergeCell ref="G51:G74"/>
     <mergeCell ref="G75:G82"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{DD651442-0428-46FF-BD66-2DA1EE16949D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EDAA1EB1D58B449A665C8960057699D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f6f9e5c7980eb9729804970d16a34b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db720d58-4227-411f-bcee-c8e33b64d7b1" xmlns:ns3="63945a94-eccf-4e51-b06e-13c7875d9720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10a4f86fcee4fdd6d37add7357595ef5" ns2:_="" ns3:_="">
-    <xsd:import namespace="db720d58-4227-411f-bcee-c8e33b64d7b1"/>
-    <xsd:import namespace="63945a94-eccf-4e51-b06e-13c7875d9720"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="db720d58-4227-411f-bcee-c8e33b64d7b1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63945a94-eccf-4e51-b06e-13c7875d9720" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D048EEDF-20D5-4D6C-8913-2C96882DC3A5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED75C9C1-550E-4A9A-B2F0-64D12EDD6744}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B47F016-EF6E-43F9-9014-BD8EC0BF0534}"/>
 </file>